--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43434,6 +43434,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43508,6 +43508,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43545,6 +43545,43 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1196" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43582,6 +43582,43 @@
         </is>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,43 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1198" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43656,6 +43656,43 @@
         </is>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43730,6 +43730,41 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43765,6 +43765,80 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1203"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43839,6 +43839,80 @@
         </is>
       </c>
     </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43913,6 +43913,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43950,6 +43950,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43987,6 +43987,41 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44022,6 +44022,76 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44092,6 +44092,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44127,6 +44127,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83292,6 +83292,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83329,6 +83329,43 @@
         </is>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2332" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83366,6 +83366,43 @@
         </is>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2333" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83403,6 +83403,43 @@
         </is>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2334"/>
+  <dimension ref="A1:I2335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83440,6 +83440,43 @@
         </is>
       </c>
     </row>
+    <row r="2335">
+      <c r="A2335" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2335" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2335" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2335" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2335" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2335" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2335" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2335"/>
+  <dimension ref="A1:I2336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83477,6 +83477,43 @@
         </is>
       </c>
     </row>
+    <row r="2336">
+      <c r="A2336" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2336" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2336" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2336" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2336" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2336" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2336" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2336"/>
+  <dimension ref="A1:I2337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83514,6 +83514,43 @@
         </is>
       </c>
     </row>
+    <row r="2337">
+      <c r="A2337" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2337" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2337" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2337" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2337" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2337" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2337" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2337"/>
+  <dimension ref="A1:I2338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83551,6 +83551,41 @@
         </is>
       </c>
     </row>
+    <row r="2338">
+      <c r="A2338" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2338" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2338" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2338" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2338" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2338" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2338" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2338"/>
+  <dimension ref="A1:I2339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83586,6 +83586,43 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="2339">
+      <c r="A2339" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2339" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2339" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2339" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2339" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2339" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2339" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2339"/>
+  <dimension ref="A1:I2340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83623,6 +83623,43 @@
         </is>
       </c>
     </row>
+    <row r="2340">
+      <c r="A2340" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2340" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2340" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2340" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2340" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2340" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2340" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2340"/>
+  <dimension ref="A1:I2341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83660,6 +83660,43 @@
         </is>
       </c>
     </row>
+    <row r="2341">
+      <c r="A2341" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2341" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2341" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2341" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2341" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2341" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2341"/>
+  <dimension ref="A1:I2342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83697,6 +83697,43 @@
         </is>
       </c>
     </row>
+    <row r="2342">
+      <c r="A2342" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2342" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2342" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2342" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2342" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2342" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2342" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83734,6 +83734,43 @@
         </is>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2343" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83771,6 +83771,41 @@
         </is>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>27600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/4316.xlsx
+++ b/data/4316.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83806,6 +83806,41 @@
         <v>27600</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>4316</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>SHCHAN</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>24400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
